--- a/7_ABTesting/draft.xlsx
+++ b/7_ABTesting/draft.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="11310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="11310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="93">
   <si>
     <t>Unique cookies to view page per day:</t>
   </si>
@@ -123,17 +125,235 @@
   <si>
     <t>times 2 (Experiment and Control groups)</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Pageviews</t>
+  </si>
+  <si>
+    <t>Clicks</t>
+  </si>
+  <si>
+    <t>Enrollments</t>
+  </si>
+  <si>
+    <t>Payments</t>
+  </si>
+  <si>
+    <t>Sat, Oct 11</t>
+  </si>
+  <si>
+    <t>Sun, Oct 12</t>
+  </si>
+  <si>
+    <t>Mon, Oct 13</t>
+  </si>
+  <si>
+    <t>Tue, Oct 14</t>
+  </si>
+  <si>
+    <t>Wed, Oct 15</t>
+  </si>
+  <si>
+    <t>Thu, Oct 16</t>
+  </si>
+  <si>
+    <t>Fri, Oct 17</t>
+  </si>
+  <si>
+    <t>Sat, Oct 18</t>
+  </si>
+  <si>
+    <t>Sun, Oct 19</t>
+  </si>
+  <si>
+    <t>Mon, Oct 20</t>
+  </si>
+  <si>
+    <t>Tue, Oct 21</t>
+  </si>
+  <si>
+    <t>Wed, Oct 22</t>
+  </si>
+  <si>
+    <t>Thu, Oct 23</t>
+  </si>
+  <si>
+    <t>Fri, Oct 24</t>
+  </si>
+  <si>
+    <t>Sat, Oct 25</t>
+  </si>
+  <si>
+    <t>Sun, Oct 26</t>
+  </si>
+  <si>
+    <t>Mon, Oct 27</t>
+  </si>
+  <si>
+    <t>Tue, Oct 28</t>
+  </si>
+  <si>
+    <t>Wed, Oct 29</t>
+  </si>
+  <si>
+    <t>Thu, Oct 30</t>
+  </si>
+  <si>
+    <t>Fri, Oct 31</t>
+  </si>
+  <si>
+    <t>Sat, Nov 1</t>
+  </si>
+  <si>
+    <t>Sun, Nov 2</t>
+  </si>
+  <si>
+    <t>Mon, Nov 3</t>
+  </si>
+  <si>
+    <t>Tue, Nov 4</t>
+  </si>
+  <si>
+    <t>Wed, Nov 5</t>
+  </si>
+  <si>
+    <t>Thu, Nov 6</t>
+  </si>
+  <si>
+    <t>Fri, Nov 7</t>
+  </si>
+  <si>
+    <t>Sat, Nov 8</t>
+  </si>
+  <si>
+    <t>Sun, Nov 9</t>
+  </si>
+  <si>
+    <t>Mon, Nov 10</t>
+  </si>
+  <si>
+    <t>Tue, Nov 11</t>
+  </si>
+  <si>
+    <t>Wed, Nov 12</t>
+  </si>
+  <si>
+    <t>Thu, Nov 13</t>
+  </si>
+  <si>
+    <t>Fri, Nov 14</t>
+  </si>
+  <si>
+    <t>Sat, Nov 15</t>
+  </si>
+  <si>
+    <t>Sun, Nov 16</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>1-p</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Lower Bound</t>
+  </si>
+  <si>
+    <t>Upper Bound</t>
+  </si>
+  <si>
+    <t>/ n</t>
+  </si>
+  <si>
+    <t>Margin of Error @95</t>
+  </si>
+  <si>
+    <t>Value on the Control Group</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>Page View</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CONTROL</t>
+  </si>
+  <si>
+    <t>EXPERIMENT</t>
+  </si>
+  <si>
+    <t>Pooled Probability</t>
+  </si>
+  <si>
+    <t>Pooled SE</t>
+  </si>
+  <si>
+    <t>Proportions</t>
+  </si>
+  <si>
+    <t>Gross Convertion</t>
+  </si>
+  <si>
+    <t>d (p-hat-exp - p-hat-cont)</t>
+  </si>
+  <si>
+    <t>* 1.96</t>
+  </si>
+  <si>
+    <t>lower CI</t>
+  </si>
+  <si>
+    <t>upper ci</t>
+  </si>
+  <si>
+    <t>p-hat-exp</t>
+  </si>
+  <si>
+    <t>p-hat-control</t>
+  </si>
+  <si>
+    <t>Exp Clicks</t>
+  </si>
+  <si>
+    <t>Exp Enrollments</t>
+  </si>
+  <si>
+    <t>margin of error</t>
+  </si>
+  <si>
+    <t>Net Convertion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="10">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;?_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="_-* #,##0.00000000000_-;\-* #,##0.00000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="185" formatCode="_-* #,##0.000000000000000_-;\-* #,##0.000000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="189" formatCode="0.000000"/>
+    <numFmt numFmtId="190" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -179,12 +399,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -201,7 +433,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -223,6 +455,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -507,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,4 +1029,1619 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>7723</v>
+      </c>
+      <c r="C3" s="21">
+        <v>687</v>
+      </c>
+      <c r="D3" s="21">
+        <v>134</v>
+      </c>
+      <c r="E3">
+        <v>70</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3">
+        <v>7716</v>
+      </c>
+      <c r="J3">
+        <v>686</v>
+      </c>
+      <c r="K3">
+        <v>105</v>
+      </c>
+      <c r="L3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>9102</v>
+      </c>
+      <c r="C4" s="21">
+        <v>779</v>
+      </c>
+      <c r="D4" s="21">
+        <v>147</v>
+      </c>
+      <c r="E4">
+        <v>70</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4">
+        <v>9288</v>
+      </c>
+      <c r="J4">
+        <v>785</v>
+      </c>
+      <c r="K4">
+        <v>116</v>
+      </c>
+      <c r="L4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>10511</v>
+      </c>
+      <c r="C5" s="21">
+        <v>909</v>
+      </c>
+      <c r="D5" s="21">
+        <v>167</v>
+      </c>
+      <c r="E5">
+        <v>95</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5">
+        <v>10480</v>
+      </c>
+      <c r="J5">
+        <v>884</v>
+      </c>
+      <c r="K5">
+        <v>145</v>
+      </c>
+      <c r="L5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>9871</v>
+      </c>
+      <c r="C6" s="21">
+        <v>836</v>
+      </c>
+      <c r="D6" s="21">
+        <v>156</v>
+      </c>
+      <c r="E6">
+        <v>105</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>9867</v>
+      </c>
+      <c r="J6">
+        <v>827</v>
+      </c>
+      <c r="K6">
+        <v>138</v>
+      </c>
+      <c r="L6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>10014</v>
+      </c>
+      <c r="C7" s="21">
+        <v>837</v>
+      </c>
+      <c r="D7" s="21">
+        <v>163</v>
+      </c>
+      <c r="E7">
+        <v>64</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7">
+        <v>9793</v>
+      </c>
+      <c r="J7">
+        <v>832</v>
+      </c>
+      <c r="K7">
+        <v>140</v>
+      </c>
+      <c r="L7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>9670</v>
+      </c>
+      <c r="C8" s="21">
+        <v>823</v>
+      </c>
+      <c r="D8" s="21">
+        <v>138</v>
+      </c>
+      <c r="E8">
+        <v>82</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8">
+        <v>9500</v>
+      </c>
+      <c r="J8">
+        <v>788</v>
+      </c>
+      <c r="K8">
+        <v>129</v>
+      </c>
+      <c r="L8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>9008</v>
+      </c>
+      <c r="C9" s="21">
+        <v>748</v>
+      </c>
+      <c r="D9" s="21">
+        <v>146</v>
+      </c>
+      <c r="E9">
+        <v>76</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9">
+        <v>9088</v>
+      </c>
+      <c r="J9">
+        <v>780</v>
+      </c>
+      <c r="K9">
+        <v>127</v>
+      </c>
+      <c r="L9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>7434</v>
+      </c>
+      <c r="C10" s="21">
+        <v>632</v>
+      </c>
+      <c r="D10" s="21">
+        <v>110</v>
+      </c>
+      <c r="E10">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10">
+        <v>7664</v>
+      </c>
+      <c r="J10">
+        <v>652</v>
+      </c>
+      <c r="K10">
+        <v>94</v>
+      </c>
+      <c r="L10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>8459</v>
+      </c>
+      <c r="C11" s="21">
+        <v>691</v>
+      </c>
+      <c r="D11" s="21">
+        <v>131</v>
+      </c>
+      <c r="E11">
+        <v>60</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11">
+        <v>8434</v>
+      </c>
+      <c r="J11">
+        <v>697</v>
+      </c>
+      <c r="K11">
+        <v>120</v>
+      </c>
+      <c r="L11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>10667</v>
+      </c>
+      <c r="C12" s="21">
+        <v>861</v>
+      </c>
+      <c r="D12" s="21">
+        <v>165</v>
+      </c>
+      <c r="E12">
+        <v>97</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12">
+        <v>10496</v>
+      </c>
+      <c r="J12">
+        <v>860</v>
+      </c>
+      <c r="K12">
+        <v>153</v>
+      </c>
+      <c r="L12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>10660</v>
+      </c>
+      <c r="C13" s="21">
+        <v>867</v>
+      </c>
+      <c r="D13" s="21">
+        <v>196</v>
+      </c>
+      <c r="E13">
+        <v>105</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13">
+        <v>10551</v>
+      </c>
+      <c r="J13">
+        <v>864</v>
+      </c>
+      <c r="K13">
+        <v>143</v>
+      </c>
+      <c r="L13">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>9947</v>
+      </c>
+      <c r="C14" s="21">
+        <v>838</v>
+      </c>
+      <c r="D14" s="21">
+        <v>162</v>
+      </c>
+      <c r="E14">
+        <v>92</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14">
+        <v>9737</v>
+      </c>
+      <c r="J14">
+        <v>801</v>
+      </c>
+      <c r="K14">
+        <v>128</v>
+      </c>
+      <c r="L14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>8324</v>
+      </c>
+      <c r="C15" s="21">
+        <v>665</v>
+      </c>
+      <c r="D15" s="21">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>56</v>
+      </c>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15">
+        <v>8176</v>
+      </c>
+      <c r="J15">
+        <v>642</v>
+      </c>
+      <c r="K15">
+        <v>122</v>
+      </c>
+      <c r="L15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>9434</v>
+      </c>
+      <c r="C16" s="21">
+        <v>673</v>
+      </c>
+      <c r="D16" s="21">
+        <v>220</v>
+      </c>
+      <c r="E16">
+        <v>122</v>
+      </c>
+      <c r="H16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16">
+        <v>9402</v>
+      </c>
+      <c r="J16">
+        <v>697</v>
+      </c>
+      <c r="K16">
+        <v>194</v>
+      </c>
+      <c r="L16">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>8687</v>
+      </c>
+      <c r="C17" s="21">
+        <v>691</v>
+      </c>
+      <c r="D17" s="21">
+        <v>176</v>
+      </c>
+      <c r="E17">
+        <v>128</v>
+      </c>
+      <c r="H17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17">
+        <v>8669</v>
+      </c>
+      <c r="J17">
+        <v>669</v>
+      </c>
+      <c r="K17">
+        <v>127</v>
+      </c>
+      <c r="L17">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18">
+        <v>8896</v>
+      </c>
+      <c r="C18" s="21">
+        <v>708</v>
+      </c>
+      <c r="D18" s="21">
+        <v>161</v>
+      </c>
+      <c r="E18">
+        <v>104</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18">
+        <v>8881</v>
+      </c>
+      <c r="J18">
+        <v>693</v>
+      </c>
+      <c r="K18">
+        <v>153</v>
+      </c>
+      <c r="L18">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>9535</v>
+      </c>
+      <c r="C19" s="21">
+        <v>759</v>
+      </c>
+      <c r="D19" s="21">
+        <v>233</v>
+      </c>
+      <c r="E19">
+        <v>124</v>
+      </c>
+      <c r="H19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19">
+        <v>9655</v>
+      </c>
+      <c r="J19">
+        <v>771</v>
+      </c>
+      <c r="K19">
+        <v>213</v>
+      </c>
+      <c r="L19">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <v>9363</v>
+      </c>
+      <c r="C20" s="21">
+        <v>736</v>
+      </c>
+      <c r="D20" s="21">
+        <v>154</v>
+      </c>
+      <c r="E20">
+        <v>91</v>
+      </c>
+      <c r="H20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20">
+        <v>9396</v>
+      </c>
+      <c r="J20">
+        <v>736</v>
+      </c>
+      <c r="K20">
+        <v>162</v>
+      </c>
+      <c r="L20">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21">
+        <v>9327</v>
+      </c>
+      <c r="C21" s="21">
+        <v>739</v>
+      </c>
+      <c r="D21" s="21">
+        <v>196</v>
+      </c>
+      <c r="E21">
+        <v>86</v>
+      </c>
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21">
+        <v>9262</v>
+      </c>
+      <c r="J21">
+        <v>727</v>
+      </c>
+      <c r="K21">
+        <v>201</v>
+      </c>
+      <c r="L21">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>9345</v>
+      </c>
+      <c r="C22" s="21">
+        <v>734</v>
+      </c>
+      <c r="D22" s="21">
+        <v>167</v>
+      </c>
+      <c r="E22">
+        <v>75</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22">
+        <v>9308</v>
+      </c>
+      <c r="J22">
+        <v>728</v>
+      </c>
+      <c r="K22">
+        <v>207</v>
+      </c>
+      <c r="L22">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23">
+        <v>8890</v>
+      </c>
+      <c r="C23" s="21">
+        <v>706</v>
+      </c>
+      <c r="D23" s="21">
+        <v>174</v>
+      </c>
+      <c r="E23">
+        <v>101</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23">
+        <v>8715</v>
+      </c>
+      <c r="J23">
+        <v>722</v>
+      </c>
+      <c r="K23">
+        <v>182</v>
+      </c>
+      <c r="L23">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>8460</v>
+      </c>
+      <c r="C24" s="21">
+        <v>681</v>
+      </c>
+      <c r="D24" s="21">
+        <v>156</v>
+      </c>
+      <c r="E24">
+        <v>93</v>
+      </c>
+      <c r="H24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24">
+        <v>8448</v>
+      </c>
+      <c r="J24">
+        <v>695</v>
+      </c>
+      <c r="K24">
+        <v>142</v>
+      </c>
+      <c r="L24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>8836</v>
+      </c>
+      <c r="C25" s="21">
+        <v>693</v>
+      </c>
+      <c r="D25" s="21">
+        <v>206</v>
+      </c>
+      <c r="E25">
+        <v>67</v>
+      </c>
+      <c r="H25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25">
+        <v>8836</v>
+      </c>
+      <c r="J25">
+        <v>724</v>
+      </c>
+      <c r="K25">
+        <v>182</v>
+      </c>
+      <c r="L25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>9437</v>
+      </c>
+      <c r="C26">
+        <v>788</v>
+      </c>
+      <c r="H26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26">
+        <v>9359</v>
+      </c>
+      <c r="J26">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27">
+        <v>9420</v>
+      </c>
+      <c r="C27">
+        <v>781</v>
+      </c>
+      <c r="H27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27">
+        <v>9427</v>
+      </c>
+      <c r="J27">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28">
+        <v>9570</v>
+      </c>
+      <c r="C28">
+        <v>805</v>
+      </c>
+      <c r="H28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28">
+        <v>9633</v>
+      </c>
+      <c r="J28">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29">
+        <v>9921</v>
+      </c>
+      <c r="C29">
+        <v>830</v>
+      </c>
+      <c r="H29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29">
+        <v>9842</v>
+      </c>
+      <c r="J29">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30">
+        <v>9424</v>
+      </c>
+      <c r="C30">
+        <v>781</v>
+      </c>
+      <c r="H30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30">
+        <v>9272</v>
+      </c>
+      <c r="J30">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31">
+        <v>9010</v>
+      </c>
+      <c r="C31">
+        <v>756</v>
+      </c>
+      <c r="H31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31">
+        <v>8969</v>
+      </c>
+      <c r="J31">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32">
+        <v>9656</v>
+      </c>
+      <c r="C32">
+        <v>825</v>
+      </c>
+      <c r="H32" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32">
+        <v>9697</v>
+      </c>
+      <c r="J32">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33">
+        <v>10419</v>
+      </c>
+      <c r="C33">
+        <v>874</v>
+      </c>
+      <c r="H33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33">
+        <v>10445</v>
+      </c>
+      <c r="J33">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34">
+        <v>9880</v>
+      </c>
+      <c r="C34">
+        <v>830</v>
+      </c>
+      <c r="H34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34">
+        <v>9931</v>
+      </c>
+      <c r="J34">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35">
+        <v>10134</v>
+      </c>
+      <c r="C35">
+        <v>801</v>
+      </c>
+      <c r="H35" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35">
+        <v>10042</v>
+      </c>
+      <c r="J35">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36">
+        <v>9717</v>
+      </c>
+      <c r="C36">
+        <v>814</v>
+      </c>
+      <c r="H36" t="s">
+        <v>60</v>
+      </c>
+      <c r="I36">
+        <v>9721</v>
+      </c>
+      <c r="J36">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37">
+        <v>9192</v>
+      </c>
+      <c r="C37">
+        <v>735</v>
+      </c>
+      <c r="H37" t="s">
+        <v>61</v>
+      </c>
+      <c r="I37">
+        <v>9304</v>
+      </c>
+      <c r="J37">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38">
+        <v>8630</v>
+      </c>
+      <c r="C38">
+        <v>743</v>
+      </c>
+      <c r="H38" t="s">
+        <v>62</v>
+      </c>
+      <c r="I38">
+        <v>8668</v>
+      </c>
+      <c r="J38">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39">
+        <v>8970</v>
+      </c>
+      <c r="C39">
+        <v>722</v>
+      </c>
+      <c r="H39" t="s">
+        <v>63</v>
+      </c>
+      <c r="I39">
+        <v>8988</v>
+      </c>
+      <c r="J39">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="7">
+        <f>SUM(B3:B39)</f>
+        <v>345543</v>
+      </c>
+      <c r="C40" s="7">
+        <f>SUM(C3:C39)</f>
+        <v>28378</v>
+      </c>
+      <c r="D40" s="7">
+        <f>SUM(D3:D39)</f>
+        <v>3785</v>
+      </c>
+      <c r="E40" s="7">
+        <f>SUM(E3:E39)</f>
+        <v>2033</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7">
+        <f>SUM(I3:I39)</f>
+        <v>344660</v>
+      </c>
+      <c r="J40" s="7">
+        <f>SUM(J3:J39)</f>
+        <v>28325</v>
+      </c>
+      <c r="K40" s="7">
+        <f>SUM(K3:K39)</f>
+        <v>3423</v>
+      </c>
+      <c r="L40" s="7">
+        <f>SUM(L3:L39)</f>
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="12"/>
+      <c r="I41" s="12"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="14">
+        <f>B40+I40</f>
+        <v>690203</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="E46" s="16">
+        <f>C46*D46 *((1/B46))</f>
+        <v>3.6221227667802082E-7</v>
+      </c>
+      <c r="F46" s="18">
+        <f>SQRT(E46)</f>
+        <v>6.0184074029432473E-4</v>
+      </c>
+      <c r="G46" s="17">
+        <f>F46*1.96</f>
+        <v>1.1796078509768765E-3</v>
+      </c>
+      <c r="H46" s="18">
+        <f>C46-G46</f>
+        <v>0.49882039214902313</v>
+      </c>
+      <c r="I46" s="18">
+        <f>C46+G46</f>
+        <v>0.50117960785097693</v>
+      </c>
+      <c r="J46" s="19">
+        <f>B40/B46</f>
+        <v>0.50063966688061334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="14">
+        <f>C40+J40</f>
+        <v>56703</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D47" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="E47" s="16">
+        <f>C47*D47 *((1/B47))</f>
+        <v>4.4089377987055356E-6</v>
+      </c>
+      <c r="F47" s="18">
+        <f>SQRT(E47)</f>
+        <v>2.0997470796992519E-3</v>
+      </c>
+      <c r="G47" s="17">
+        <f>F47*1.96</f>
+        <v>4.1155042762105335E-3</v>
+      </c>
+      <c r="H47" s="18">
+        <f>C47-G47</f>
+        <v>0.49588449572378945</v>
+      </c>
+      <c r="I47" s="18">
+        <f>C47+G47</f>
+        <v>0.50411550427621055</v>
+      </c>
+      <c r="J47" s="19">
+        <f>C40/B47</f>
+        <v>0.50046734740666277</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C50" s="11"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56">
+        <f>SUM(C3:C25)</f>
+        <v>17293</v>
+      </c>
+      <c r="C56">
+        <f>SUM(D3:D25)</f>
+        <v>3785</v>
+      </c>
+      <c r="D56">
+        <f>SUM(E3:E25)</f>
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57">
+        <f>SUM(J3:J25)</f>
+        <v>17260</v>
+      </c>
+      <c r="C57">
+        <f>SUM(K3:K25)</f>
+        <v>3423</v>
+      </c>
+      <c r="D57">
+        <f>SUM(L3:L25)</f>
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="20">
+        <f>SUM(B56:B57)</f>
+        <v>34553</v>
+      </c>
+      <c r="C58" s="20">
+        <f>SUM(C56:C57)</f>
+        <v>7208</v>
+      </c>
+      <c r="D58">
+        <f>SUM(D56:D57)</f>
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D59" s="3"/>
+      <c r="H59" s="19"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60" t="s">
+        <v>88</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="G60" t="s">
+        <v>79</v>
+      </c>
+      <c r="H60" t="s">
+        <v>80</v>
+      </c>
+      <c r="I60" t="s">
+        <v>91</v>
+      </c>
+      <c r="J60" t="s">
+        <v>85</v>
+      </c>
+      <c r="K60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61">
+        <f>C57/B57</f>
+        <v>0.19831981460023174</v>
+      </c>
+      <c r="E61">
+        <f>C56/B56</f>
+        <v>0.2188746891805933</v>
+      </c>
+      <c r="F61" s="23">
+        <f>D61-E61</f>
+        <v>-2.0554874580361565E-2</v>
+      </c>
+      <c r="G61" s="19">
+        <f>(C58/B58)</f>
+        <v>0.20860706740369866</v>
+      </c>
+      <c r="H61" s="19">
+        <f>SQRT(G61*(1-G61) * (1/B56 + 1/B57))</f>
+        <v>4.3716753852259364E-3</v>
+      </c>
+      <c r="I61" s="19">
+        <f>H61*1.96</f>
+        <v>8.5684837550428355E-3</v>
+      </c>
+      <c r="J61" s="19">
+        <f>F61-I61</f>
+        <v>-2.9123358335404401E-2</v>
+      </c>
+      <c r="K61" s="19">
+        <f>F61+I61</f>
+        <v>-1.198639082531873E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F62" s="23"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63">
+        <f>D57/B57</f>
+        <v>0.1126882966396292</v>
+      </c>
+      <c r="E63">
+        <f>D56/B56</f>
+        <v>0.11756201931417337</v>
+      </c>
+      <c r="F63" s="23">
+        <f>D63-E63</f>
+        <v>-4.8737226745441675E-3</v>
+      </c>
+      <c r="G63" s="19">
+        <f>(D58/B58)</f>
+        <v>0.11512748531241861</v>
+      </c>
+      <c r="H63" s="19">
+        <f>SQRT(G63*(1-G63) * (1/B56 + 1/B57))</f>
+        <v>3.4341335129324238E-3</v>
+      </c>
+      <c r="I63" s="19">
+        <f t="shared" ref="I62:I63" si="0">H63*1.96</f>
+        <v>6.7309016853475505E-3</v>
+      </c>
+      <c r="J63" s="19">
+        <f>F63-I63</f>
+        <v>-1.1604624359891718E-2</v>
+      </c>
+      <c r="K63" s="19">
+        <f>F63+I63</f>
+        <v>1.857179010803383E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D65" s="3"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G72" s="19"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75">
+        <v>17293</v>
+      </c>
+      <c r="C75">
+        <v>17260</v>
+      </c>
+      <c r="D75">
+        <f>SUM(B75:C75)</f>
+        <v>34553</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76">
+        <v>3785</v>
+      </c>
+      <c r="C76">
+        <v>3423</v>
+      </c>
+      <c r="D76">
+        <f>SUM(B76:C76)</f>
+        <v>7208</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77">
+        <f>SUM(E3:E25)</f>
+        <v>2033</v>
+      </c>
+      <c r="C77">
+        <f>SUM(L3:L25)</f>
+        <v>1945</v>
+      </c>
+      <c r="D77">
+        <f>SUM(B77:C77)</f>
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+      <c r="D81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="19">
+        <f>D76/D75</f>
+        <v>0.20860706740369866</v>
+      </c>
+      <c r="C82" s="19">
+        <f>SQRT(B82*(1-B82)/D75)</f>
+        <v>2.1858366957295469E-3</v>
+      </c>
+      <c r="D82" s="19">
+        <f>C82*1.96</f>
+        <v>4.2842399236299117E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="19">
+        <f>D77/D76</f>
+        <v>0.55188679245283023</v>
+      </c>
+      <c r="C83" s="19">
+        <f>SQRT(B83*(1-B83)/D76)</f>
+        <v>5.8574890257811997E-3</v>
+      </c>
+      <c r="D83" s="19">
+        <f t="shared" ref="D83:D84" si="1">C83*1.96</f>
+        <v>1.1480678490531152E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="19">
+        <f>D77/D75</f>
+        <v>0.11512748531241861</v>
+      </c>
+      <c r="C84" s="19">
+        <f>SQRT(B84*(1-B84)/D75)</f>
+        <v>1.7170659733726692E-3</v>
+      </c>
+      <c r="D84" s="19">
+        <f t="shared" si="1"/>
+        <v>3.3654493078104316E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="19">
+        <f>B76/B75</f>
+        <v>0.2188746891805933</v>
+      </c>
+      <c r="C87" s="19">
+        <f>C76/C75</f>
+        <v>0.19831981460023174</v>
+      </c>
+      <c r="D87" s="19">
+        <f>C87-B87</f>
+        <v>-2.0554874580361565E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2">
+        <v>352</v>
+      </c>
+      <c r="C2">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3">
+        <v>7370</v>
+      </c>
+      <c r="C3">
+        <v>7270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f>(1/B3)+(1/C3)</f>
+        <v>2.7323679215526721E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f>SQRT(C8)</f>
+        <v>1.6529875745306351E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/7_ABTesting/draft.xlsx
+++ b/7_ABTesting/draft.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="11310" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="11310" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="96">
   <si>
     <t>Unique cookies to view page per day:</t>
   </si>
@@ -282,12 +285,6 @@
     <t>Control</t>
   </si>
   <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t>Page View</t>
-  </si>
-  <si>
     <t>Experiment</t>
   </si>
   <si>
@@ -303,40 +300,55 @@
     <t>Pooled SE</t>
   </si>
   <si>
-    <t>Proportions</t>
-  </si>
-  <si>
     <t>Gross Convertion</t>
   </si>
   <si>
-    <t>d (p-hat-exp - p-hat-cont)</t>
-  </si>
-  <si>
-    <t>* 1.96</t>
-  </si>
-  <si>
-    <t>lower CI</t>
-  </si>
-  <si>
-    <t>upper ci</t>
-  </si>
-  <si>
-    <t>p-hat-exp</t>
-  </si>
-  <si>
-    <t>p-hat-control</t>
-  </si>
-  <si>
-    <t>Exp Clicks</t>
-  </si>
-  <si>
-    <t>Exp Enrollments</t>
-  </si>
-  <si>
-    <t>margin of error</t>
-  </si>
-  <si>
     <t>Net Convertion</t>
+  </si>
+  <si>
+    <t>Margin of Error</t>
+  </si>
+  <si>
+    <t>Lower CI</t>
+  </si>
+  <si>
+    <t>Upper CI</t>
+  </si>
+  <si>
+    <t>p - experiment</t>
+  </si>
+  <si>
+    <t>p - control</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Experiment &gt; Control ?</t>
+  </si>
+  <si>
+    <t>Sucesses</t>
+  </si>
+  <si>
+    <t>Number of trials</t>
+  </si>
+  <si>
+    <t>Trials</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>two-tailed p-value</t>
   </si>
 </sst>
 </file>
@@ -349,13 +361,13 @@
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;?_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_-* #,##0.00000000000_-;\-* #,##0.00000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="185" formatCode="_-* #,##0.000000000000000_-;\-* #,##0.000000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="189" formatCode="0.000000"/>
-    <numFmt numFmtId="190" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00000000000_-;\-* #,##0.00000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.000000000000000_-;\-* #,##0.000000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="0.000000"/>
+    <numFmt numFmtId="172" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,25 +410,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -433,7 +441,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -456,28 +464,42 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -762,9 +784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1033,28 +1053,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L87"/>
+  <dimension ref="A2:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1070,23 +1091,26 @@
       <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1102,23 +1126,47 @@
       <c r="E3">
         <v>70</v>
       </c>
-      <c r="H3" t="s">
+      <c r="F3">
+        <f>D3/C3</f>
+        <v>0.1950509461426492</v>
+      </c>
+      <c r="G3">
+        <f>E3/C3</f>
+        <v>0.10189228529839883</v>
+      </c>
+      <c r="I3" t="s">
         <v>27</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>7716</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>686</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>105</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <f>L3/K3</f>
+        <v>0.15306122448979592</v>
+      </c>
+      <c r="O3">
+        <f>M3/K3</f>
+        <v>4.9562682215743441E-2</v>
+      </c>
+      <c r="P3" t="b">
+        <f>N3&gt;F3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" t="b">
+        <f>O3&gt;G3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1134,23 +1182,47 @@
       <c r="E4">
         <v>70</v>
       </c>
-      <c r="H4" t="s">
+      <c r="F4">
+        <f t="shared" ref="F4:F25" si="0">D4/C4</f>
+        <v>0.18870346598202825</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G25" si="1">E4/C4</f>
+        <v>8.9858793324775352E-2</v>
+      </c>
+      <c r="I4" t="s">
         <v>28</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>9288</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>785</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>116</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>91</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <f t="shared" ref="N4:N25" si="2">L4/K4</f>
+        <v>0.14777070063694267</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O25" si="3">M4/K4</f>
+        <v>0.11592356687898089</v>
+      </c>
+      <c r="P4" t="b">
+        <f>N4&gt;F4</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" t="b">
+        <f t="shared" ref="Q4:Q25" si="4">O4&gt;G4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1166,23 +1238,47 @@
       <c r="E5">
         <v>95</v>
       </c>
-      <c r="H5" t="s">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.18371837183718373</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.10451045104510451</v>
+      </c>
+      <c r="I5" t="s">
         <v>29</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>10480</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>884</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>145</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>0.16402714932126697</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>8.9366515837104074E-2</v>
+      </c>
+      <c r="P5" t="b">
+        <f>N5&gt;F5</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1198,23 +1294,47 @@
       <c r="E6">
         <v>105</v>
       </c>
-      <c r="H6" t="s">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.18660287081339713</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.1255980861244019</v>
+      </c>
+      <c r="I6" t="s">
         <v>30</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>9867</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>827</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>138</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>92</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>0.16686819830713423</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>0.11124546553808948</v>
+      </c>
+      <c r="P6" t="b">
+        <f>N6&gt;F6</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1230,23 +1350,47 @@
       <c r="E7">
         <v>64</v>
       </c>
-      <c r="H7" t="s">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.19474313022700118</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>7.6463560334528072E-2</v>
+      </c>
+      <c r="I7" t="s">
         <v>31</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>9793</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>832</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>140</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>94</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>0.16826923076923078</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>0.11298076923076923</v>
+      </c>
+      <c r="P7" t="b">
+        <f>N7&gt;F7</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1262,23 +1406,47 @@
       <c r="E8">
         <v>82</v>
       </c>
-      <c r="H8" t="s">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.16767922235722965</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>9.9635479951397321E-2</v>
+      </c>
+      <c r="I8" t="s">
         <v>32</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>9500</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>788</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>129</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>0.16370558375634517</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>7.7411167512690351E-2</v>
+      </c>
+      <c r="P8" t="b">
+        <f>N8&gt;F8</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1294,23 +1462,47 @@
       <c r="E9">
         <v>76</v>
       </c>
-      <c r="H9" t="s">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.19518716577540107</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.10160427807486631</v>
+      </c>
+      <c r="I9" t="s">
         <v>33</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>9088</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>780</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>127</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>0.16282051282051282</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>5.6410256410256411E-2</v>
+      </c>
+      <c r="P9" t="b">
+        <f>N9&gt;F9</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1326,23 +1518,47 @@
       <c r="E10">
         <v>70</v>
       </c>
-      <c r="H10" t="s">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.17405063291139242</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.11075949367088607</v>
+      </c>
+      <c r="I10" t="s">
         <v>34</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>7664</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>652</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>94</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>0.14417177914110429</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>9.5092024539877307E-2</v>
+      </c>
+      <c r="P10" t="b">
+        <f>N10&gt;F10</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1358,23 +1574,47 @@
       <c r="E11">
         <v>60</v>
       </c>
-      <c r="H11" t="s">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.18958031837916064</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>8.6830680173661356E-2</v>
+      </c>
+      <c r="I11" t="s">
         <v>35</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>8434</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>697</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>120</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>77</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>0.17216642754662842</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>0.11047345767575323</v>
+      </c>
+      <c r="P11" t="b">
+        <f>N11&gt;F11</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1390,23 +1630,47 @@
       <c r="E12">
         <v>97</v>
       </c>
-      <c r="H12" t="s">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.19163763066202091</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.11265969802555169</v>
+      </c>
+      <c r="I12" t="s">
         <v>36</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>10496</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>860</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>153</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>98</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>0.17790697674418604</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>0.11395348837209303</v>
+      </c>
+      <c r="P12" t="b">
+        <f>N12&gt;F12</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1422,23 +1686,47 @@
       <c r="E13">
         <v>105</v>
       </c>
-      <c r="H13" t="s">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.22606689734717417</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0.12110726643598616</v>
+      </c>
+      <c r="I13" t="s">
         <v>37</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>10551</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>864</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>143</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>71</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>0.16550925925925927</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>8.217592592592593E-2</v>
+      </c>
+      <c r="P13" t="b">
+        <f>N13&gt;F13</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1454,23 +1742,47 @@
       <c r="E14">
         <v>92</v>
       </c>
-      <c r="H14" t="s">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.19331742243436753</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.10978520286396182</v>
+      </c>
+      <c r="I14" t="s">
         <v>38</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>9737</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>801</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>128</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>0.15980024968789014</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>8.7390761548064924E-2</v>
+      </c>
+      <c r="P14" t="b">
+        <f>N14&gt;F14</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1486,23 +1798,47 @@
       <c r="E15">
         <v>56</v>
       </c>
-      <c r="H15" t="s">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.19097744360902255</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>8.4210526315789472E-2</v>
+      </c>
+      <c r="I15" t="s">
         <v>39</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>8176</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>642</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>122</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>0.19003115264797507</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>0.1059190031152648</v>
+      </c>
+      <c r="P15" t="b">
+        <f>N15&gt;F15</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1518,23 +1854,47 @@
       <c r="E16">
         <v>122</v>
       </c>
-      <c r="H16" t="s">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.32689450222882616</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.1812778603268945</v>
+      </c>
+      <c r="I16" t="s">
         <v>40</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>9402</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>697</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>194</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>94</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>0.27833572453371591</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>0.13486370157819225</v>
+      </c>
+      <c r="P16" t="b">
+        <f>N16&gt;F16</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1550,23 +1910,47 @@
       <c r="E17">
         <v>128</v>
       </c>
-      <c r="H17" t="s">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0.25470332850940663</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0.18523878437047755</v>
+      </c>
+      <c r="I17" t="s">
         <v>41</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>8669</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>669</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>127</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>81</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>0.18983557548579971</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>0.1210762331838565</v>
+      </c>
+      <c r="P17" t="b">
+        <f>N17&gt;F17</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1582,23 +1966,47 @@
       <c r="E18">
         <v>104</v>
       </c>
-      <c r="H18" t="s">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.22740112994350281</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0.14689265536723164</v>
+      </c>
+      <c r="I18" t="s">
         <v>42</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>8881</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>693</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>153</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>101</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>0.22077922077922077</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>0.14574314574314573</v>
+      </c>
+      <c r="P18" t="b">
+        <f>N18&gt;F18</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1614,23 +2022,47 @@
       <c r="E19">
         <v>124</v>
       </c>
-      <c r="H19" t="s">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0.30698287220026349</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0.16337285902503293</v>
+      </c>
+      <c r="I19" t="s">
         <v>43</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>9655</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>771</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>213</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>119</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>0.27626459143968873</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="3"/>
+        <v>0.15434500648508431</v>
+      </c>
+      <c r="P19" t="b">
+        <f>N19&gt;F19</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1646,23 +2078,47 @@
       <c r="E20">
         <v>91</v>
       </c>
-      <c r="H20" t="s">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0.20923913043478262</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.12364130434782608</v>
+      </c>
+      <c r="I20" t="s">
         <v>44</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>9396</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>736</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>162</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>120</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>0.22010869565217392</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="3"/>
+        <v>0.16304347826086957</v>
+      </c>
+      <c r="P20" t="b">
+        <f>N20&gt;F20</f>
+        <v>1</v>
+      </c>
+      <c r="Q20" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -1678,23 +2134,47 @@
       <c r="E21">
         <v>86</v>
       </c>
-      <c r="H21" t="s">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0.26522327469553453</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0.11637347767253045</v>
+      </c>
+      <c r="I21" t="s">
         <v>45</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>9262</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>727</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>201</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>96</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>0.27647867950481431</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="3"/>
+        <v>0.13204951856946354</v>
+      </c>
+      <c r="P21" t="b">
+        <f>N21&gt;F21</f>
+        <v>1</v>
+      </c>
+      <c r="Q21" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1710,23 +2190,47 @@
       <c r="E22">
         <v>75</v>
       </c>
-      <c r="H22" t="s">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0.22752043596730245</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0.10217983651226158</v>
+      </c>
+      <c r="I22" t="s">
         <v>46</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>9308</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>728</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>207</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>0.28434065934065933</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="3"/>
+        <v>9.2032967032967039E-2</v>
+      </c>
+      <c r="P22" t="b">
+        <f>N22&gt;F22</f>
+        <v>1</v>
+      </c>
+      <c r="Q22" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1742,23 +2246,47 @@
       <c r="E23">
         <v>101</v>
       </c>
-      <c r="H23" t="s">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0.24645892351274787</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0.14305949008498584</v>
+      </c>
+      <c r="I23" t="s">
         <v>47</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>8715</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>722</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>182</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>123</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>0.25207756232686979</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="3"/>
+        <v>0.17036011080332411</v>
+      </c>
+      <c r="P23" t="b">
+        <f>N23&gt;F23</f>
+        <v>1</v>
+      </c>
+      <c r="Q23" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1774,23 +2302,47 @@
       <c r="E24">
         <v>93</v>
       </c>
-      <c r="H24" t="s">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.22907488986784141</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0.13656387665198239</v>
+      </c>
+      <c r="I24" t="s">
         <v>48</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>8448</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>695</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>142</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>0.20431654676258992</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="3"/>
+        <v>0.14388489208633093</v>
+      </c>
+      <c r="P24" t="b">
+        <f>N24&gt;F24</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -1806,23 +2358,47 @@
       <c r="E25">
         <v>67</v>
       </c>
-      <c r="H25" t="s">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0.29725829725829728</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>9.6681096681096687E-2</v>
+      </c>
+      <c r="I25" t="s">
         <v>49</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>8836</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>724</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>182</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>103</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>0.25138121546961328</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="3"/>
+        <v>0.14226519337016574</v>
+      </c>
+      <c r="P25" t="b">
+        <f>N25&gt;F25</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -1832,17 +2408,17 @@
       <c r="C26">
         <v>788</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>50</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>9359</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>789</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1852,17 +2428,17 @@
       <c r="C27">
         <v>781</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>51</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>9427</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>743</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -1872,17 +2448,17 @@
       <c r="C28">
         <v>805</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>52</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>9633</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>808</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -1892,17 +2468,17 @@
       <c r="C29">
         <v>830</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>53</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>9842</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>831</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -1912,17 +2488,17 @@
       <c r="C30">
         <v>781</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>54</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>9272</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>767</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -1932,17 +2508,17 @@
       <c r="C31">
         <v>756</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>55</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>8969</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>760</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -1952,17 +2528,17 @@
       <c r="C32">
         <v>825</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>56</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>9697</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>850</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -1972,17 +2548,17 @@
       <c r="C33">
         <v>874</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>57</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>10445</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>851</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -1992,17 +2568,17 @@
       <c r="C34">
         <v>830</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>58</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>9931</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>831</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -2012,17 +2588,17 @@
       <c r="C35">
         <v>801</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>59</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>10042</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>802</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -2032,17 +2608,17 @@
       <c r="C36">
         <v>814</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>60</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>9721</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>829</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -2052,17 +2628,17 @@
       <c r="C37">
         <v>735</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>61</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>9304</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>770</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -2072,17 +2648,17 @@
       <c r="C38">
         <v>743</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>62</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>8668</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>724</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -2092,17 +2668,17 @@
       <c r="C39">
         <v>722</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>63</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>8988</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>710</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -2125,34 +2701,35 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
-      <c r="I40" s="7">
-        <f>SUM(I3:I39)</f>
-        <v>344660</v>
-      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7">
         <f>SUM(J3:J39)</f>
-        <v>28325</v>
+        <v>344660</v>
       </c>
       <c r="K40" s="7">
         <f>SUM(K3:K39)</f>
-        <v>3423</v>
+        <v>28325</v>
       </c>
       <c r="L40" s="7">
         <f>SUM(L3:L39)</f>
+        <v>3423</v>
+      </c>
+      <c r="M40" s="7">
+        <f>SUM(M3:M39)</f>
         <v>1945</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
-      <c r="I41" s="12"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G43" s="13"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G44" s="13"/>
-    </row>
-    <row r="45" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J41" s="12"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>64</v>
       </c>
@@ -2168,25 +2745,26 @@
       <c r="F45" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="2"/>
+      <c r="H45" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="I45" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I45" s="10" t="s">
+      <c r="J45" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J45" s="10" t="s">
+      <c r="K45" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>23</v>
       </c>
       <c r="B46" s="14">
-        <f>B40+I40</f>
+        <f>B40+J40</f>
         <v>690203</v>
       </c>
       <c r="C46" s="2">
@@ -2203,29 +2781,30 @@
         <f>SQRT(E46)</f>
         <v>6.0184074029432473E-4</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="18"/>
+      <c r="H46" s="17">
         <f>F46*1.96</f>
         <v>1.1796078509768765E-3</v>
       </c>
-      <c r="H46" s="18">
-        <f>C46-G46</f>
+      <c r="I46" s="18">
+        <f>C46-H46</f>
         <v>0.49882039214902313</v>
       </c>
-      <c r="I46" s="18">
-        <f>C46+G46</f>
+      <c r="J46" s="18">
+        <f>C46+H46</f>
         <v>0.50117960785097693</v>
       </c>
-      <c r="J46" s="19">
+      <c r="K46" s="19">
         <f>B40/B46</f>
         <v>0.50063966688061334</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>24</v>
       </c>
       <c r="B47" s="14">
-        <f>C40+J40</f>
+        <f>C40+K40</f>
         <v>56703</v>
       </c>
       <c r="C47" s="2">
@@ -2242,32 +2821,33 @@
         <f>SQRT(E47)</f>
         <v>2.0997470796992519E-3</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G47" s="18"/>
+      <c r="H47" s="17">
         <f>F47*1.96</f>
         <v>4.1155042762105335E-3</v>
       </c>
-      <c r="H47" s="18">
-        <f>C47-G47</f>
+      <c r="I47" s="18">
+        <f>C47-H47</f>
         <v>0.49588449572378945</v>
       </c>
-      <c r="I47" s="18">
-        <f>C47+G47</f>
+      <c r="J47" s="18">
+        <f>C47+H47</f>
         <v>0.50411550427621055</v>
       </c>
-      <c r="J47" s="19">
+      <c r="K47" s="19">
         <f>C40/B47</f>
         <v>0.50046734740666277</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C50" s="11"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>24</v>
       </c>
@@ -2278,9 +2858,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B56">
         <f>SUM(C3:C25)</f>
@@ -2295,24 +2875,24 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B57">
-        <f>SUM(J3:J25)</f>
+        <f>SUM(K3:K25)</f>
         <v>17260</v>
       </c>
       <c r="C57">
-        <f>SUM(K3:K25)</f>
+        <f>SUM(L3:L25)</f>
         <v>3423</v>
       </c>
       <c r="D57">
-        <f>SUM(L3:L25)</f>
+        <f>SUM(M3:M25)</f>
         <v>1945</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -2329,316 +2909,2130 @@
         <v>3978</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D59" s="3"/>
-      <c r="H59" s="19"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>89</v>
-      </c>
-      <c r="C60" t="s">
-        <v>90</v>
-      </c>
-      <c r="D60" t="s">
-        <v>87</v>
-      </c>
-      <c r="E60" t="s">
-        <v>88</v>
-      </c>
-      <c r="F60" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="I59" s="19"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>79</v>
       </c>
-      <c r="H60" t="s">
-        <v>80</v>
-      </c>
-      <c r="I60" t="s">
-        <v>91</v>
-      </c>
-      <c r="J60" t="s">
-        <v>85</v>
-      </c>
-      <c r="K60" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61">
+      <c r="B61">
         <f>C57/B57</f>
         <v>0.19831981460023174</v>
       </c>
-      <c r="E61">
+      <c r="C61">
         <f>C56/B56</f>
         <v>0.2188746891805933</v>
       </c>
-      <c r="F61" s="23">
-        <f>D61-E61</f>
+      <c r="D61" s="22">
+        <f>B61-C61</f>
         <v>-2.0554874580361565E-2</v>
       </c>
-      <c r="G61" s="19">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62">
+        <f>D57/B57</f>
+        <v>0.1126882966396292</v>
+      </c>
+      <c r="C62">
+        <f>D56/B56</f>
+        <v>0.11756201931417337</v>
+      </c>
+      <c r="D62" s="22">
+        <f>B62-C62</f>
+        <v>-4.8737226745441675E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" t="s">
+        <v>82</v>
+      </c>
+      <c r="E65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="19">
         <f>(C58/B58)</f>
         <v>0.20860706740369866</v>
       </c>
-      <c r="H61" s="19">
-        <f>SQRT(G61*(1-G61) * (1/B56 + 1/B57))</f>
+      <c r="B66" s="19">
+        <f>SQRT(A66*(1-A66) * (1/B56 + 1/B57))</f>
         <v>4.3716753852259364E-3</v>
       </c>
-      <c r="I61" s="19">
-        <f>H61*1.96</f>
+      <c r="C66" s="19">
+        <f>B66*1.96</f>
         <v>8.5684837550428355E-3</v>
       </c>
-      <c r="J61" s="19">
-        <f>F61-I61</f>
+      <c r="D66" s="19">
+        <f>D61-C66</f>
         <v>-2.9123358335404401E-2</v>
       </c>
-      <c r="K61" s="19">
-        <f>F61+I61</f>
+      <c r="E66" s="19">
+        <f>D61+C66</f>
         <v>-1.198639082531873E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F62" s="23"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>92</v>
-      </c>
-      <c r="D63">
-        <f>D57/B57</f>
-        <v>0.1126882966396292</v>
-      </c>
-      <c r="E63">
-        <f>D56/B56</f>
-        <v>0.11756201931417337</v>
-      </c>
-      <c r="F63" s="23">
-        <f>D63-E63</f>
-        <v>-4.8737226745441675E-3</v>
-      </c>
-      <c r="G63" s="19">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="19">
         <f>(D58/B58)</f>
         <v>0.11512748531241861</v>
       </c>
-      <c r="H63" s="19">
-        <f>SQRT(G63*(1-G63) * (1/B56 + 1/B57))</f>
+      <c r="B67" s="19">
+        <f>SQRT(A67*(1-A67) * (1/B56 + 1/B57))</f>
         <v>3.4341335129324238E-3</v>
       </c>
-      <c r="I63" s="19">
-        <f t="shared" ref="I62:I63" si="0">H63*1.96</f>
+      <c r="C67" s="19">
+        <f>B67*1.96</f>
         <v>6.7309016853475505E-3</v>
       </c>
-      <c r="J63" s="19">
-        <f>F63-I63</f>
+      <c r="D67" s="19">
+        <f>D62-C67</f>
         <v>-1.1604624359891718E-2</v>
       </c>
-      <c r="K63" s="19">
-        <f>F63+I63</f>
+      <c r="E67" s="19">
+        <f>D62+C67</f>
         <v>1.857179010803383E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D65" s="3"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G72" s="19"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H71" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B56:B57" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C74" t="s">
-        <v>76</v>
-      </c>
-      <c r="D74" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>24</v>
-      </c>
-      <c r="B75">
-        <v>17293</v>
-      </c>
-      <c r="C75">
-        <v>17260</v>
-      </c>
-      <c r="D75">
-        <f>SUM(B75:C75)</f>
-        <v>34553</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>25</v>
-      </c>
-      <c r="B76">
-        <v>3785</v>
-      </c>
-      <c r="C76">
-        <v>3423</v>
-      </c>
-      <c r="D76">
-        <f>SUM(B76:C76)</f>
-        <v>7208</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>26</v>
-      </c>
-      <c r="B77">
-        <f>SUM(E3:E25)</f>
-        <v>2033</v>
-      </c>
-      <c r="C77">
-        <f>SUM(L3:L25)</f>
-        <v>1945</v>
-      </c>
-      <c r="D77">
-        <f>SUM(B77:C77)</f>
-        <v>3978</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>81</v>
-      </c>
-      <c r="D81" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="19">
-        <f>D76/D75</f>
-        <v>0.20860706740369866</v>
-      </c>
-      <c r="C82" s="19">
-        <f>SQRT(B82*(1-B82)/D75)</f>
-        <v>2.1858366957295469E-3</v>
-      </c>
-      <c r="D82" s="19">
-        <f>C82*1.96</f>
-        <v>4.2842399236299117E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="19">
-        <f>D77/D76</f>
-        <v>0.55188679245283023</v>
-      </c>
-      <c r="C83" s="19">
-        <f>SQRT(B83*(1-B83)/D76)</f>
-        <v>5.8574890257811997E-3</v>
-      </c>
-      <c r="D83" s="19">
-        <f t="shared" ref="D83:D84" si="1">C83*1.96</f>
-        <v>1.1480678490531152E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="19">
-        <f>D77/D75</f>
-        <v>0.11512748531241861</v>
-      </c>
-      <c r="C84" s="19">
-        <f>SQRT(B84*(1-B84)/D75)</f>
-        <v>1.7170659733726692E-3</v>
-      </c>
-      <c r="D84" s="19">
-        <f t="shared" si="1"/>
-        <v>3.3654493078104316E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="19">
-        <f>B76/B75</f>
-        <v>0.2188746891805933</v>
-      </c>
-      <c r="C87" s="19">
-        <f>C76/C75</f>
-        <v>0.19831981460023174</v>
-      </c>
-      <c r="D87" s="19">
-        <f>C87-B87</f>
-        <v>-2.0554874580361565E-2</v>
+      <c r="C2" s="26"/>
+      <c r="E2" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="H2" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="26"/>
+      <c r="N2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="18">
+        <v>0.1950509461426492</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0.10189228529839883</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18">
+        <v>0.15306122448979592</v>
+      </c>
+      <c r="F4" s="18">
+        <v>4.9562682215743441E-2</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="18">
+        <v>0.18870346598202825</v>
+      </c>
+      <c r="C5" s="18">
+        <v>8.9858793324775352E-2</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18">
+        <v>0.14777070063694267</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0.11592356687898089</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="18">
+        <v>0.18371837183718373</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0.10451045104510451</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18">
+        <v>0.16402714932126697</v>
+      </c>
+      <c r="F6" s="18">
+        <v>8.9366515837104074E-2</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="18">
+        <v>0.18660287081339713</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0.1255980861244019</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18">
+        <v>0.16686819830713423</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0.11124546553808948</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="18">
+        <v>0.19474313022700118</v>
+      </c>
+      <c r="C8" s="18">
+        <v>7.6463560334528072E-2</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18">
+        <v>0.16826923076923078</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0.11298076923076923</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="18">
+        <v>0.16767922235722965</v>
+      </c>
+      <c r="C9" s="18">
+        <v>9.9635479951397321E-2</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18">
+        <v>0.16370558375634517</v>
+      </c>
+      <c r="F9" s="18">
+        <v>7.7411167512690351E-2</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="18">
+        <v>0.19518716577540107</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0.10160427807486631</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18">
+        <v>0.16282051282051282</v>
+      </c>
+      <c r="F10" s="18">
+        <v>5.6410256410256411E-2</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="18">
+        <v>0.17405063291139242</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0.11075949367088607</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18">
+        <v>0.14417177914110429</v>
+      </c>
+      <c r="F11" s="18">
+        <v>9.5092024539877307E-2</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="18">
+        <v>0.18958031837916064</v>
+      </c>
+      <c r="C12" s="18">
+        <v>8.6830680173661356E-2</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18">
+        <v>0.17216642754662842</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0.11047345767575323</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="18">
+        <v>0.19163763066202091</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0.11265969802555169</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18">
+        <v>0.17790697674418604</v>
+      </c>
+      <c r="F13" s="18">
+        <v>0.11395348837209303</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="18">
+        <v>0.22606689734717417</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0.12110726643598616</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18">
+        <v>0.16550925925925927</v>
+      </c>
+      <c r="F14" s="18">
+        <v>8.217592592592593E-2</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="18">
+        <v>0.19331742243436753</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0.10978520286396182</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18">
+        <v>0.15980024968789014</v>
+      </c>
+      <c r="F15" s="18">
+        <v>8.7390761548064924E-2</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="18">
+        <v>0.19097744360902255</v>
+      </c>
+      <c r="C16" s="18">
+        <v>8.4210526315789472E-2</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18">
+        <v>0.19003115264797507</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0.1059190031152648</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="18">
+        <v>0.32689450222882616</v>
+      </c>
+      <c r="C17" s="18">
+        <v>0.1812778603268945</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18">
+        <v>0.27833572453371591</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0.13486370157819225</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="18">
+        <v>0.25470332850940663</v>
+      </c>
+      <c r="C18" s="18">
+        <v>0.18523878437047755</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18">
+        <v>0.18983557548579971</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0.1210762331838565</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="18">
+        <v>0.22740112994350281</v>
+      </c>
+      <c r="C19" s="18">
+        <v>0.14689265536723164</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18">
+        <v>0.22077922077922077</v>
+      </c>
+      <c r="F19" s="18">
+        <v>0.14574314574314573</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="18">
+        <v>0.30698287220026349</v>
+      </c>
+      <c r="C20" s="18">
+        <v>0.16337285902503293</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18">
+        <v>0.27626459143968873</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0.15434500648508431</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="18">
+        <v>0.20923913043478262</v>
+      </c>
+      <c r="C21" s="18">
+        <v>0.12364130434782608</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18">
+        <v>0.22010869565217392</v>
+      </c>
+      <c r="F21" s="18">
+        <v>0.16304347826086957</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="18">
+        <v>0.26522327469553453</v>
+      </c>
+      <c r="C22" s="18">
+        <v>0.11637347767253045</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18">
+        <v>0.27647867950481431</v>
+      </c>
+      <c r="F22" s="18">
+        <v>0.13204951856946354</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="18">
+        <v>0.22752043596730245</v>
+      </c>
+      <c r="C23" s="18">
+        <v>0.10217983651226158</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18">
+        <v>0.28434065934065933</v>
+      </c>
+      <c r="F23" s="18">
+        <v>9.2032967032967039E-2</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="18">
+        <v>0.24645892351274787</v>
+      </c>
+      <c r="C24" s="18">
+        <v>0.14305949008498584</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18">
+        <v>0.25207756232686979</v>
+      </c>
+      <c r="F24" s="18">
+        <v>0.17036011080332411</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="18">
+        <v>0.22907488986784141</v>
+      </c>
+      <c r="C25" s="18">
+        <v>0.13656387665198239</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18">
+        <v>0.20431654676258992</v>
+      </c>
+      <c r="F25" s="18">
+        <v>0.14388489208633093</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="18">
+        <v>0.29725829725829728</v>
+      </c>
+      <c r="C26" s="18">
+        <v>9.6681096681096687E-2</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18">
+        <v>0.25138121546961328</v>
+      </c>
+      <c r="F26" s="18">
+        <v>0.14226519337016574</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H27" s="27">
+        <v>4</v>
+      </c>
+      <c r="I27" s="27">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A25" sqref="A3:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="G1" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>7723</v>
+      </c>
+      <c r="C3" s="21">
+        <v>687</v>
+      </c>
+      <c r="D3" s="21">
+        <v>134</v>
+      </c>
+      <c r="E3">
+        <v>70</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3">
+        <v>7716</v>
+      </c>
+      <c r="I3">
+        <v>686</v>
+      </c>
+      <c r="J3">
+        <v>105</v>
+      </c>
+      <c r="K3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>9102</v>
+      </c>
+      <c r="C4" s="21">
+        <v>779</v>
+      </c>
+      <c r="D4" s="21">
+        <v>147</v>
+      </c>
+      <c r="E4">
+        <v>70</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4">
+        <v>9288</v>
+      </c>
+      <c r="I4">
+        <v>785</v>
+      </c>
+      <c r="J4">
+        <v>116</v>
+      </c>
+      <c r="K4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>10511</v>
+      </c>
+      <c r="C5" s="21">
+        <v>909</v>
+      </c>
+      <c r="D5" s="21">
+        <v>167</v>
+      </c>
+      <c r="E5">
+        <v>95</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5">
+        <v>10480</v>
+      </c>
+      <c r="I5">
+        <v>884</v>
+      </c>
+      <c r="J5">
+        <v>145</v>
+      </c>
+      <c r="K5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>9871</v>
+      </c>
+      <c r="C6" s="21">
+        <v>836</v>
+      </c>
+      <c r="D6" s="21">
+        <v>156</v>
+      </c>
+      <c r="E6">
+        <v>105</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>9867</v>
+      </c>
+      <c r="I6">
+        <v>827</v>
+      </c>
+      <c r="J6">
+        <v>138</v>
+      </c>
+      <c r="K6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>10014</v>
+      </c>
+      <c r="C7" s="21">
+        <v>837</v>
+      </c>
+      <c r="D7" s="21">
+        <v>163</v>
+      </c>
+      <c r="E7">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7">
+        <v>9793</v>
+      </c>
+      <c r="I7">
+        <v>832</v>
+      </c>
+      <c r="J7">
+        <v>140</v>
+      </c>
+      <c r="K7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>9670</v>
+      </c>
+      <c r="C8" s="21">
+        <v>823</v>
+      </c>
+      <c r="D8" s="21">
+        <v>138</v>
+      </c>
+      <c r="E8">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8">
+        <v>9500</v>
+      </c>
+      <c r="I8">
+        <v>788</v>
+      </c>
+      <c r="J8">
+        <v>129</v>
+      </c>
+      <c r="K8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>9008</v>
+      </c>
+      <c r="C9" s="21">
+        <v>748</v>
+      </c>
+      <c r="D9" s="21">
+        <v>146</v>
+      </c>
+      <c r="E9">
+        <v>76</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9">
+        <v>9088</v>
+      </c>
+      <c r="I9">
+        <v>780</v>
+      </c>
+      <c r="J9">
+        <v>127</v>
+      </c>
+      <c r="K9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>7434</v>
+      </c>
+      <c r="C10" s="21">
+        <v>632</v>
+      </c>
+      <c r="D10" s="21">
+        <v>110</v>
+      </c>
+      <c r="E10">
+        <v>70</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10">
+        <v>7664</v>
+      </c>
+      <c r="I10">
+        <v>652</v>
+      </c>
+      <c r="J10">
+        <v>94</v>
+      </c>
+      <c r="K10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>8459</v>
+      </c>
+      <c r="C11" s="21">
+        <v>691</v>
+      </c>
+      <c r="D11" s="21">
+        <v>131</v>
+      </c>
+      <c r="E11">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11">
+        <v>8434</v>
+      </c>
+      <c r="I11">
+        <v>697</v>
+      </c>
+      <c r="J11">
+        <v>120</v>
+      </c>
+      <c r="K11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>10667</v>
+      </c>
+      <c r="C12" s="21">
+        <v>861</v>
+      </c>
+      <c r="D12" s="21">
+        <v>165</v>
+      </c>
+      <c r="E12">
+        <v>97</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12">
+        <v>10496</v>
+      </c>
+      <c r="I12">
+        <v>860</v>
+      </c>
+      <c r="J12">
+        <v>153</v>
+      </c>
+      <c r="K12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>10660</v>
+      </c>
+      <c r="C13" s="21">
+        <v>867</v>
+      </c>
+      <c r="D13" s="21">
+        <v>196</v>
+      </c>
+      <c r="E13">
+        <v>105</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13">
+        <v>10551</v>
+      </c>
+      <c r="I13">
+        <v>864</v>
+      </c>
+      <c r="J13">
+        <v>143</v>
+      </c>
+      <c r="K13">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>9947</v>
+      </c>
+      <c r="C14" s="21">
+        <v>838</v>
+      </c>
+      <c r="D14" s="21">
+        <v>162</v>
+      </c>
+      <c r="E14">
+        <v>92</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14">
+        <v>9737</v>
+      </c>
+      <c r="I14">
+        <v>801</v>
+      </c>
+      <c r="J14">
+        <v>128</v>
+      </c>
+      <c r="K14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>8324</v>
+      </c>
+      <c r="C15" s="21">
+        <v>665</v>
+      </c>
+      <c r="D15" s="21">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15">
+        <v>8176</v>
+      </c>
+      <c r="I15">
+        <v>642</v>
+      </c>
+      <c r="J15">
+        <v>122</v>
+      </c>
+      <c r="K15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>9434</v>
+      </c>
+      <c r="C16" s="21">
+        <v>673</v>
+      </c>
+      <c r="D16" s="21">
+        <v>220</v>
+      </c>
+      <c r="E16">
+        <v>122</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16">
+        <v>9402</v>
+      </c>
+      <c r="I16">
+        <v>697</v>
+      </c>
+      <c r="J16">
+        <v>194</v>
+      </c>
+      <c r="K16">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>8687</v>
+      </c>
+      <c r="C17" s="21">
+        <v>691</v>
+      </c>
+      <c r="D17" s="21">
+        <v>176</v>
+      </c>
+      <c r="E17">
+        <v>128</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17">
+        <v>8669</v>
+      </c>
+      <c r="I17">
+        <v>669</v>
+      </c>
+      <c r="J17">
+        <v>127</v>
+      </c>
+      <c r="K17">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18">
+        <v>8896</v>
+      </c>
+      <c r="C18" s="21">
+        <v>708</v>
+      </c>
+      <c r="D18" s="21">
+        <v>161</v>
+      </c>
+      <c r="E18">
+        <v>104</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18">
+        <v>8881</v>
+      </c>
+      <c r="I18">
+        <v>693</v>
+      </c>
+      <c r="J18">
+        <v>153</v>
+      </c>
+      <c r="K18">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>9535</v>
+      </c>
+      <c r="C19" s="21">
+        <v>759</v>
+      </c>
+      <c r="D19" s="21">
+        <v>233</v>
+      </c>
+      <c r="E19">
+        <v>124</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19">
+        <v>9655</v>
+      </c>
+      <c r="I19">
+        <v>771</v>
+      </c>
+      <c r="J19">
+        <v>213</v>
+      </c>
+      <c r="K19">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <v>9363</v>
+      </c>
+      <c r="C20" s="21">
+        <v>736</v>
+      </c>
+      <c r="D20" s="21">
+        <v>154</v>
+      </c>
+      <c r="E20">
+        <v>91</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20">
+        <v>9396</v>
+      </c>
+      <c r="I20">
+        <v>736</v>
+      </c>
+      <c r="J20">
+        <v>162</v>
+      </c>
+      <c r="K20">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21">
+        <v>9327</v>
+      </c>
+      <c r="C21" s="21">
+        <v>739</v>
+      </c>
+      <c r="D21" s="21">
+        <v>196</v>
+      </c>
+      <c r="E21">
+        <v>86</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21">
+        <v>9262</v>
+      </c>
+      <c r="I21">
+        <v>727</v>
+      </c>
+      <c r="J21">
+        <v>201</v>
+      </c>
+      <c r="K21">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>9345</v>
+      </c>
+      <c r="C22" s="21">
+        <v>734</v>
+      </c>
+      <c r="D22" s="21">
+        <v>167</v>
+      </c>
+      <c r="E22">
+        <v>75</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22">
+        <v>9308</v>
+      </c>
+      <c r="I22">
+        <v>728</v>
+      </c>
+      <c r="J22">
+        <v>207</v>
+      </c>
+      <c r="K22">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23">
+        <v>8890</v>
+      </c>
+      <c r="C23" s="21">
+        <v>706</v>
+      </c>
+      <c r="D23" s="21">
+        <v>174</v>
+      </c>
+      <c r="E23">
+        <v>101</v>
+      </c>
+      <c r="G23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23">
+        <v>8715</v>
+      </c>
+      <c r="I23">
+        <v>722</v>
+      </c>
+      <c r="J23">
+        <v>182</v>
+      </c>
+      <c r="K23">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>8460</v>
+      </c>
+      <c r="C24" s="21">
+        <v>681</v>
+      </c>
+      <c r="D24" s="21">
+        <v>156</v>
+      </c>
+      <c r="E24">
+        <v>93</v>
+      </c>
+      <c r="G24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24">
+        <v>8448</v>
+      </c>
+      <c r="I24">
+        <v>695</v>
+      </c>
+      <c r="J24">
+        <v>142</v>
+      </c>
+      <c r="K24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>8836</v>
+      </c>
+      <c r="C25" s="21">
+        <v>693</v>
+      </c>
+      <c r="D25" s="21">
+        <v>206</v>
+      </c>
+      <c r="E25">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25">
+        <v>8836</v>
+      </c>
+      <c r="I25">
+        <v>724</v>
+      </c>
+      <c r="J25">
+        <v>182</v>
+      </c>
+      <c r="K25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>9437</v>
+      </c>
+      <c r="C26">
+        <v>788</v>
+      </c>
+      <c r="G26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26">
+        <v>9359</v>
+      </c>
+      <c r="I26">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27">
+        <v>9420</v>
+      </c>
+      <c r="C27">
+        <v>781</v>
+      </c>
+      <c r="G27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27">
+        <v>9427</v>
+      </c>
+      <c r="I27">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28">
+        <v>9570</v>
+      </c>
+      <c r="C28">
+        <v>805</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28">
+        <v>9633</v>
+      </c>
+      <c r="I28">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29">
+        <v>9921</v>
+      </c>
+      <c r="C29">
+        <v>830</v>
+      </c>
+      <c r="G29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29">
+        <v>9842</v>
+      </c>
+      <c r="I29">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30">
+        <v>9424</v>
+      </c>
+      <c r="C30">
+        <v>781</v>
+      </c>
+      <c r="G30" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30">
+        <v>9272</v>
+      </c>
+      <c r="I30">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31">
+        <v>9010</v>
+      </c>
+      <c r="C31">
+        <v>756</v>
+      </c>
+      <c r="G31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31">
+        <v>8969</v>
+      </c>
+      <c r="I31">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32">
+        <v>9656</v>
+      </c>
+      <c r="C32">
+        <v>825</v>
+      </c>
+      <c r="G32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32">
+        <v>9697</v>
+      </c>
+      <c r="I32">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33">
+        <v>10419</v>
+      </c>
+      <c r="C33">
+        <v>874</v>
+      </c>
+      <c r="G33" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33">
+        <v>10445</v>
+      </c>
+      <c r="I33">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34">
+        <v>9880</v>
+      </c>
+      <c r="C34">
+        <v>830</v>
+      </c>
+      <c r="G34" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34">
+        <v>9931</v>
+      </c>
+      <c r="I34">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35">
+        <v>10134</v>
+      </c>
+      <c r="C35">
+        <v>801</v>
+      </c>
+      <c r="G35" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35">
+        <v>10042</v>
+      </c>
+      <c r="I35">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36">
+        <v>9717</v>
+      </c>
+      <c r="C36">
+        <v>814</v>
+      </c>
+      <c r="G36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H36">
+        <v>9721</v>
+      </c>
+      <c r="I36">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37">
+        <v>9192</v>
+      </c>
+      <c r="C37">
+        <v>735</v>
+      </c>
+      <c r="G37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37">
+        <v>9304</v>
+      </c>
+      <c r="I37">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38">
+        <v>8630</v>
+      </c>
+      <c r="C38">
+        <v>743</v>
+      </c>
+      <c r="G38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38">
+        <v>8668</v>
+      </c>
+      <c r="I38">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39">
+        <v>8970</v>
+      </c>
+      <c r="C39">
+        <v>722</v>
+      </c>
+      <c r="G39" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39">
+        <v>8988</v>
+      </c>
+      <c r="I39">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="7">
+        <f>SUM(B3:B39)</f>
+        <v>345543</v>
+      </c>
+      <c r="C40" s="7">
+        <f>SUM(C3:C39)</f>
+        <v>28378</v>
+      </c>
+      <c r="D40" s="7">
+        <f>SUM(D3:D39)</f>
+        <v>3785</v>
+      </c>
+      <c r="E40" s="7">
+        <f>SUM(E3:E39)</f>
+        <v>2033</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7">
+        <f>SUM(H3:H39)</f>
+        <v>344660</v>
+      </c>
+      <c r="I40" s="7">
+        <f>SUM(I3:I39)</f>
+        <v>28325</v>
+      </c>
+      <c r="J40" s="7">
+        <f>SUM(J3:J39)</f>
+        <v>3423</v>
+      </c>
+      <c r="K40" s="7">
+        <f>SUM(K3:K39)</f>
+        <v>1945</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.67759999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
       <c r="B2">
-        <v>352</v>
+        <v>17293</v>
       </c>
       <c r="C2">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3785</v>
+      </c>
+      <c r="D2">
+        <v>2033</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="24">
+        <v>0.19831981460023174</v>
+      </c>
+      <c r="I2" s="24">
+        <v>0.2188746891805933</v>
+      </c>
+      <c r="J2" s="24">
+        <v>-2.0554874580361565E-2</v>
+      </c>
+      <c r="M2" s="18">
+        <v>0.20860706740369866</v>
+      </c>
+      <c r="N2" s="18">
+        <v>4.3716753852259364E-3</v>
+      </c>
+      <c r="O2" s="18">
+        <v>8.5684837550428355E-3</v>
+      </c>
+      <c r="P2" s="18">
+        <v>-2.9123358335404401E-2</v>
+      </c>
+      <c r="Q2" s="18">
+        <v>-1.198639082531873E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B3">
-        <v>7370</v>
+        <v>17260</v>
       </c>
       <c r="C3">
-        <v>7270</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <f>(1/B3)+(1/C3)</f>
-        <v>2.7323679215526721E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <f>SQRT(C8)</f>
-        <v>1.6529875745306351E-2</v>
+        <v>3423</v>
+      </c>
+      <c r="D3">
+        <v>1945</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="24">
+        <v>0.1126882966396292</v>
+      </c>
+      <c r="I3" s="24">
+        <v>0.11756201931417337</v>
+      </c>
+      <c r="J3" s="24">
+        <v>-4.8737226745441675E-3</v>
+      </c>
+      <c r="M3" s="18">
+        <v>0.11512748531241861</v>
+      </c>
+      <c r="N3" s="18">
+        <v>3.4341335129324238E-3</v>
+      </c>
+      <c r="O3" s="18">
+        <v>6.7309016853475505E-3</v>
+      </c>
+      <c r="P3" s="18">
+        <v>-1.1604624359891718E-2</v>
+      </c>
+      <c r="Q3" s="18">
+        <v>1.857179010803383E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4">
+        <v>34553</v>
+      </c>
+      <c r="C4">
+        <v>7208</v>
+      </c>
+      <c r="D4">
+        <v>3978</v>
       </c>
     </row>
   </sheetData>
